--- a/test-doc/液化/液化-Seed Curve.xlsx
+++ b/test-doc/液化/液化-Seed Curve.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496BC951-EE5E-4885-9298-BF20E9F07154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26729A07-C83E-4663-AFF2-607DE87C49BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CSR" sheetId="1" r:id="rId1"/>
-    <sheet name="CSR code" sheetId="4" r:id="rId2"/>
+    <sheet name="CRR" sheetId="1" r:id="rId1"/>
+    <sheet name="CRR code" sheetId="4" r:id="rId2"/>
     <sheet name="CN" sheetId="2" r:id="rId3"/>
     <sheet name="rd" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -242,7 +242,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CSR!$I$1:$J$1</c:f>
+              <c:f>CRR!$I$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -273,7 +273,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CSR!$H$3:$H$103</c:f>
+              <c:f>CRR!$H$3:$H$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -585,7 +585,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CSR!$J$3:$J$103</c:f>
+              <c:f>CRR!$J$3:$J$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -907,7 +907,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CSR!$K$1:$L$1</c:f>
+              <c:f>CRR!$K$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -938,7 +938,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CSR!$H$3:$H$103</c:f>
+              <c:f>CRR!$H$3:$H$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1250,7 +1250,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CSR!$L$3:$L$103</c:f>
+              <c:f>CRR!$L$3:$L$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1572,7 +1572,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CSR!$M$1:$N$1</c:f>
+              <c:f>CRR!$M$1:$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1595,7 +1595,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CSR!$H$3:$H$80</c:f>
+              <c:f>CRR!$H$3:$H$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
@@ -1838,7 +1838,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CSR!$N$3:$N$80</c:f>
+              <c:f>CRR!$N$3:$N$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
@@ -2091,7 +2091,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>CSR!$O$1:$P$1</c:f>
+              <c:f>CRR!$O$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2114,7 +2114,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CSR!$H$3:$H$70</c:f>
+              <c:f>CRR!$H$3:$H$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
@@ -2327,7 +2327,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CSR!$P$3:$P$70</c:f>
+              <c:f>CRR!$P$3:$P$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
@@ -2550,7 +2550,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>CSR!$Q$1:$R$1</c:f>
+              <c:f>CRR!$Q$1:$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2573,7 +2573,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CSR!$H$3:$H$60</c:f>
+              <c:f>CRR!$H$3:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
@@ -2756,7 +2756,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CSR!$R$3:$R$60</c:f>
+              <c:f>CRR!$R$3:$R$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
@@ -2949,7 +2949,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>CSR!$A$1</c:f>
+              <c:f>CRR!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2975,7 +2975,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CSR!$A$3:$A$29</c:f>
+              <c:f>CRR!$A$3:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3065,7 +3065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CSR!$B$3:$B$29</c:f>
+              <c:f>CRR!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3165,7 +3165,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>CSR!$C$1</c:f>
+              <c:f>CRR!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3189,7 +3189,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CSR!$C$3:$C$32</c:f>
+              <c:f>CRR!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3288,7 +3288,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CSR!$D$3:$D$32</c:f>
+              <c:f>CRR!$D$3:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3397,7 +3397,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>CSR!$E$1</c:f>
+              <c:f>CRR!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3423,7 +3423,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CSR!$E$3:$E$27</c:f>
+              <c:f>CRR!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3507,7 +3507,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CSR!$F$3:$F$27</c:f>
+              <c:f>CRR!$F$3:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -7286,8 +7286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:F27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7442,7 +7442,7 @@
         <v>5.3992529850984149E-2</v>
       </c>
       <c r="M3" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H3</f>
+        <f t="shared" ref="M3:M34" si="1">IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H3</f>
         <v>0</v>
       </c>
       <c r="N3" s="2">
@@ -7493,7 +7493,7 @@
         <v>0.5</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I67" si="1">MIN(H4+0.224*$J$1-2.24,30)</f>
+        <f t="shared" ref="I4:I67" si="2">MIN(H4+0.224*$J$1-2.24,30)</f>
         <v>-0.62000000000000011</v>
       </c>
       <c r="J4" s="2">
@@ -7501,35 +7501,35 @@
         <v>7.8470886639303433E-3</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K67" si="2">MIN(H4+0.224*$L$1-2.24,30)</f>
+        <f t="shared" ref="K4:K67" si="3">MIN(H4+0.224*$L$1-2.24,30)</f>
         <v>6.1</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L67" si="3">$G$2*K4^6+$G$3*K4^5+$G$4*K4^4+$G$5*K4^3+$G$6*K4^2+$G$7*K4^1+$G$8</f>
+        <f t="shared" ref="L4:L67" si="4">$G$2*K4^6+$G$3*K4^5+$G$4*K4^4+$G$5*K4^3+$G$6*K4^2+$G$7*K4^1+$G$8</f>
         <v>6.1305498983138265E-2</v>
       </c>
       <c r="M4" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H4</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N4:N67" si="4" xml:space="preserve"> IF(M4&lt;39,0.08 + 0.0035 * M4 / (1 -M4 / 39),"-")</f>
+        <f t="shared" ref="N4:N67" si="5" xml:space="preserve"> IF(M4&lt;39,0.08 + 0.0035 * M4 / (1 -M4 / 39),"-")</f>
         <v>8.1772727272727275E-2</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O67" si="5">IF(P$1&lt;=10,1,1+0.07*SQRT(P$1-10))*H4</f>
+        <f t="shared" ref="O4:O67" si="6">IF(P$1&lt;=10,1,1+0.07*SQRT(P$1-10))*H4</f>
         <v>0.57826237921249268</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P67" si="6" xml:space="preserve"> IF(O4&lt;39,0.08 + 0.0035 * O4 / (1 -O4 / 39),"-")</f>
+        <f t="shared" ref="P4:P67" si="7" xml:space="preserve"> IF(O4&lt;39,0.08 + 0.0035 * O4 / (1 -O4 / 39),"-")</f>
         <v>8.2054379100225797E-2</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q4:Q67" si="7">IF(R$1&lt;=10,1,1+0.07*SQRT(R$1-10))*H4</f>
+        <f t="shared" ref="Q4:Q67" si="8">IF(R$1&lt;=10,1,1+0.07*SQRT(R$1-10))*H4</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" ref="R4:R67" si="8" xml:space="preserve"> IF(Q4&lt;39,0.08 + 0.0035 * Q4 / (1 -Q4 / 39),"-")</f>
+        <f t="shared" ref="R4:R67" si="9" xml:space="preserve"> IF(Q4&lt;39,0.08 + 0.0035 * Q4 / (1 -Q4 / 39),"-")</f>
         <v>8.2404109589041097E-2</v>
       </c>
     </row>
@@ -7556,11 +7556,11 @@
         <v>-8.8999999999999995E-4</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H68" si="9">H4+0.5</f>
+        <f t="shared" ref="H5:H68" si="10">H4+0.5</f>
         <v>1</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.12000000000000011</v>
       </c>
       <c r="J5" s="2">
@@ -7568,35 +7568,35 @@
         <v>1.0775657366277167E-3</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8394010473050118E-2</v>
       </c>
       <c r="M5" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.3592105263157898E-2</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1565247584249854</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.4171541554185242E-2</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4894422310756973E-2</v>
       </c>
     </row>
@@ -7623,11 +7623,11 @@
         <v>6.6677777777769997E-3</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37999999999999989</v>
       </c>
       <c r="J6" s="2">
@@ -7635,35 +7635,35 @@
         <v>-2.1881720808801155E-3</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.522606245911001E-2</v>
       </c>
       <c r="M6" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H6</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.5460000000000008E-2</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7347871376374782</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.6354410081115621E-2</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0250000000000004</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.7475659229208927E-2</v>
       </c>
     </row>
@@ -7690,11 +7690,11 @@
         <v>-8.1666666666650005E-3</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87999999999999989</v>
       </c>
       <c r="J7" s="2">
@@ -7702,35 +7702,35 @@
         <v>-2.5965055065130453E-3</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.178909567928852E-2</v>
       </c>
       <c r="M7" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H7</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.7378378378378377E-2</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3130495168499707</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.8606091672706166E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.0152892561983472E-2</v>
       </c>
     </row>
@@ -7757,11 +7757,11 @@
         <v>-4.0000000000000003E-15</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.38</v>
       </c>
       <c r="J8" s="2">
@@ -7769,35 +7769,35 @@
         <v>-7.1348383419196084E-4</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8086644471069453E-2</v>
       </c>
       <c r="M8" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H8</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9349315068493154E-2</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8913118960624633</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.092989234824872E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.375</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.2931578947368421E-2</v>
       </c>
     </row>
@@ -7821,11 +7821,11 @@
         <v>0.152027</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.88</v>
       </c>
       <c r="J9" s="2">
@@ -7833,35 +7833,35 @@
         <v>2.9689648661562107E-3</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4135217771377552E-2</v>
       </c>
       <c r="M9" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H9</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.1374999999999998E-2</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4695742752749563</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3329333350640475E-2</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.5817596566523611E-2</v>
       </c>
     </row>
@@ -7885,11 +7885,11 @@
         <v>0.17128399999999999</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.38</v>
       </c>
       <c r="J10" s="2">
@@ -7897,35 +7897,35 @@
         <v>8.0270535485884517E-3</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9961410116501268E-2</v>
       </c>
       <c r="M10" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H10</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3457746478873241E-2</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0478366544874484</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5808168950105202E-2</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7250000000000005</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.8817286652078784E-2</v>
       </c>
     </row>
@@ -7949,11 +7949,11 @@
         <v>0.185473</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.88</v>
       </c>
       <c r="J11" s="2">
@@ -7961,35 +7961,35 @@
         <v>1.4099385991130579E-2</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10559924264201052</v>
       </c>
       <c r="M11" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H11</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6260990336999415</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.837040604495613E-2</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1019375</v>
       </c>
     </row>
@@ -8013,11 +8013,11 @@
         <v>0.20777000000000001</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.38</v>
       </c>
       <c r="J12" s="2">
@@ -8025,35 +8025,35 @@
         <v>2.0881436595757228E-2</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.1</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11108773408266884</v>
       </c>
       <c r="M12" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H12</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.7804347826086963E-2</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.2043614129124345</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10102032577463918</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.0750000000000002</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10518564920273349</v>
       </c>
     </row>
@@ -8077,11 +8077,11 @@
         <v>0.22804099999999999</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.88</v>
       </c>
       <c r="J13" s="2">
@@ -8089,35 +8089,35 @@
         <v>2.8120260188366813E-2</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.6</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1164687017723425</v>
       </c>
       <c r="M13" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H13</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10007352941176471</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7826237921249266</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10376250739027126</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.75</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10856976744186048</v>
       </c>
     </row>
@@ -8141,11 +8141,11 @@
         <v>0.24729699999999999</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.38</v>
       </c>
       <c r="J14" s="2">
@@ -8153,35 +8153,35 @@
         <v>3.5609431818751432E-2</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.1</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12178479264390137</v>
       </c>
       <c r="M14" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H14</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10241044776119403</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3608861713374196</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10660185466264345</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.4250000000000007</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11209857482185273</v>
       </c>
     </row>
@@ -8205,11 +8205,11 @@
         <v>0.26756799999999997</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.88</v>
       </c>
       <c r="J15" s="2">
@@ -8217,35 +8217,35 @@
         <v>4.3184216560561837E-2</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.6</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12707774422911888</v>
       </c>
       <c r="M15" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H15</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10481818181818182</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9391485505499126</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10954362514805606</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.1000000000000014</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11578155339805826</v>
       </c>
     </row>
@@ -8269,11 +8269,11 @@
         <v>0.28783799999999998</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.38</v>
       </c>
       <c r="J16" s="2">
@@ -8281,35 +8281,35 @@
         <v>5.071696931126736E-2</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.1</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13238687565856294</v>
       </c>
       <c r="M16" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H16</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10730000000000001</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5174109297624048</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11259346267942837</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.7750000000000004</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11962903225806451</v>
       </c>
     </row>
@@ -8333,11 +8333,11 @@
         <v>0.31317600000000001</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8800000000000008</v>
       </c>
       <c r="J17" s="2">
@@ -8345,35 +8345,35 @@
         <v>5.811276459211101E-2</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.6</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13774780866148406</v>
       </c>
       <c r="M17" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H17</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10985937500000001</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0956733089748969</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11575743350512771</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.4500000000000011</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12365228426395941</v>
       </c>
     </row>
@@ -8397,11 +8397,11 @@
         <v>0.34358100000000003</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.5</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3800000000000008</v>
       </c>
       <c r="J18" s="2">
@@ -8409,35 +8409,35 @@
         <v>6.5305256348059088E-2</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.1</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14319141856569945</v>
       </c>
       <c r="M18" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H18</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1125</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6739356881873899</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11904206656240553</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.125</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12786363636363637</v>
       </c>
     </row>
@@ -8461,11 +8461,11 @@
         <v>0.36486499999999999</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8800000000000008</v>
       </c>
       <c r="J19" s="2">
@@ -8473,35 +8473,35 @@
         <v>7.2252767747746555E-2</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.6</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14874301529746869</v>
       </c>
       <c r="M19" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H19</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1152258064516129</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2521980673998829</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12245439844804351</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.8</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13227659574468087</v>
       </c>
     </row>
@@ -8525,11 +8525,11 @@
         <v>0.38209500000000002</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3800000000000008</v>
       </c>
       <c r="J20" s="2">
@@ -8537,35 +8537,35 @@
         <v>7.89346109834166E-2</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.1</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15442175438136824</v>
       </c>
       <c r="M20" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H20</f>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11804098360655738</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8304604466123759</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12600202373803845</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.475000000000001</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13690599455040872</v>
       </c>
     </row>
@@ -8589,11 +8589,11 @@
         <v>0.41047299999999998</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8800000000000008</v>
       </c>
       <c r="J21" s="2">
@@ -8601,35 +8601,35 @@
         <v>8.5347637070856033E-2</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.6</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16024027794015738</v>
       </c>
       <c r="M21" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H21</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12095</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.408722825824869</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12969315141362114</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.15</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14176815642458102</v>
       </c>
     </row>
@@ -8653,11 +8653,11 @@
         <v>0.433784</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.5</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3800000000000008</v>
       </c>
       <c r="J22" s="2">
@@ -8665,35 +8665,35 @@
         <v>9.1503015649324781E-2</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.1</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16620458569464339</v>
       </c>
       <c r="M22" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H22</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12395762711864408</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.98698520503736</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13353666827596447</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.825000000000001</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14688108882521492</v>
       </c>
     </row>
@@ -8717,11 +8717,11 @@
         <v>0.46418900000000002</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8800000000000008</v>
       </c>
       <c r="J23" s="2">
@@ -8729,35 +8729,35 @@
         <v>9.7423244781480844E-2</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.6</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17231413596353737</v>
       </c>
       <c r="M23" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H23</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12706896551724139</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.565247584249853</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13754221038072159</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.5</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15226470588235294</v>
       </c>
     </row>
@@ -8781,11 +8781,11 @@
         <v>0.490541</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3800000000000008</v>
       </c>
       <c r="J24" s="2">
@@ -8793,35 +8793,35 @@
         <v>0.10313939075330068</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.100000000000001</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17856217666330698</v>
       </c>
       <c r="M24" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H24</f>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13028947368421051</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.143509963462346</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14172024370114999</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.175000000000001</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15794108761329306</v>
       </c>
     </row>
@@ -8845,11 +8845,11 @@
         <v>0.51993199999999995</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8800000000000008</v>
       </c>
       <c r="J25" s="2">
@@ -8857,35 +8857,35 @@
         <v>0.10868855787399416</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.600000000000001</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18493630630802699</v>
       </c>
       <c r="M25" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H25</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13362499999999999</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.721772342674839</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14608215544137176</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.850000000000001</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16393478260869565</v>
       </c>
     </row>
@@ -8909,11 +8909,11 @@
         <v>0.6</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.5</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.38</v>
       </c>
       <c r="J26" s="2">
@@ -8921,35 +8921,35 @@
         <v>0.11411158827591349</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.100000000000001</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19141926500921491</v>
       </c>
       <c r="M26" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H26</f>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13708181818181819</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.300034721887332</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.15064035767720471</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.525</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17027316293929712</v>
       </c>
     </row>
@@ -8973,11 +8973,11 @@
         <v>102</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.88</v>
       </c>
       <c r="J27" s="2">
@@ -8985,35 +8985,35 @@
         <v>0.11945099171445997</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.600000000000001</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19798995547567982</v>
       </c>
       <c r="M27" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H27</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14066666666666666</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.878297101099825</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.15540840531089403</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.200000000000003</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17698684210526319</v>
       </c>
     </row>
@@ -9031,11 +9031,11 @@
         <v>0.46013500000000002</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.38</v>
       </c>
       <c r="J28" s="2">
@@ -9043,35 +9043,35 @@
         <v>0.12474910536798176</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.100000000000001</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20462469401334604</v>
       </c>
       <c r="M28" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H28</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1443867924528302</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.456559480312317</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16040113070047043</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.875</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18411016949152542</v>
       </c>
     </row>
@@ -9089,11 +9089,11 @@
         <v>0.48344599999999999</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.88</v>
       </c>
       <c r="J29" s="2">
@@ -9101,35 +9101,35 @@
         <v>0.13004648363767049</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.600000000000001</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2112986915250821</v>
       </c>
       <c r="M29" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H29</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14824999999999999</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.03482185952481</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16563479778016138</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.55</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.19168181818181818</v>
       </c>
     </row>
@@ -9141,11 +9141,11 @@
         <v>0.51587799999999995</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.5</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.38</v>
       </c>
       <c r="J30" s="2">
@@ -9153,35 +9153,35 @@
         <v>0.13538051794745171</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.100000000000001</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21798776451052801</v>
       </c>
       <c r="M30" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H30</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15226470588235294</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.613084238737303</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17112727904539113</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.225000000000001</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.199745487364621</v>
       </c>
     </row>
@@ -9193,11 +9193,11 @@
         <v>0.6</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.88</v>
       </c>
       <c r="J31" s="2">
@@ -9205,35 +9205,35 @@
         <v>0.14078428654386688</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.600000000000001</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2246702760659102</v>
       </c>
       <c r="M31" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H31</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15644000000000002</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.191346617949794</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17689825946013327</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.900000000000002</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.20835074626865674</v>
       </c>
     </row>
@@ -9245,11 +9245,11 @@
         <v>101</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.5</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.38</v>
       </c>
       <c r="J32" s="2">
@@ -9257,45 +9257,45 @@
         <v>0.14628563429595715</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.100000000000001</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23132930688384865</v>
       </c>
       <c r="M32" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H32</f>
+        <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16078571428571431</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.769608997162287</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18296947218879123</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.575000000000003</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.21755405405405415</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.88</v>
       </c>
       <c r="J33" s="2">
@@ -9303,45 +9303,45 @@
         <v>0.15190648249513361</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.6</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23795505625317939</v>
       </c>
       <c r="M33" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H33</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16531249999999997</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.34787137637478</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18936497210216025</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20.25</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22742000000000001</v>
       </c>
     </row>
     <row r="34" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.5</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.38</v>
       </c>
       <c r="J34" s="2">
@@ -9349,3209 +9349,3209 @@
         <v>0.15766236865505462</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.1</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24454747305874097</v>
       </c>
       <c r="M34" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H34</f>
+        <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17003191489361702</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.926133755587273</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19611145431305987</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20.925000000000001</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.23802282157676352</v>
       </c>
     </row>
     <row r="35" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H35" s="2">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="2"/>
+        <v>14.88</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" ref="J35:J66" si="11">$G$2*I35^6+$G$3*I35^5+$G$4*I35^4+$G$5*I35^3+$G$6*I35^2+$G$7*I35^1+$G$8</f>
+        <v>0.16356221631148204</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="3"/>
+        <v>21.6</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25111911678118359</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" ref="M35:M66" si="12">IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H35</f>
+        <v>16</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17495652173913046</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="6"/>
+        <v>18.504396134799766</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20323862663489722</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="8"/>
+        <v>21.6</v>
+      </c>
+      <c r="R35" s="2">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="1"/>
-        <v>14.88</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" ref="J35:J66" si="10">$G$2*I35^6+$G$3*I35^5+$G$4*I35^4+$G$5*I35^3+$G$6*I35^2+$G$7*I35^1+$G$8</f>
-        <v>0.16356221631148204</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="2"/>
-        <v>21.6</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="3"/>
-        <v>0.25111911678118359</v>
-      </c>
-      <c r="M35" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H35</f>
-        <v>16</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17495652173913046</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="5"/>
-        <v>18.504396134799766</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="6"/>
-        <v>0.20323862663489722</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="7"/>
-        <v>21.6</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="8"/>
         <v>0.24944827586206897</v>
       </c>
     </row>
     <row r="36" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H36" s="2">
+        <f t="shared" si="10"/>
+        <v>16.5</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="2"/>
+        <v>15.38</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="11"/>
+        <v>0.16960833482214691</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="3"/>
+        <v>22.1</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25769824849675355</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="12"/>
+        <v>16.5</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="6"/>
+        <v>19.082658514012259</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21077964692201479</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="8"/>
+        <v>22.275000000000002</v>
+      </c>
+      <c r="R36" s="2">
         <f t="shared" si="9"/>
-        <v>16.5</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="1"/>
-        <v>15.38</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="10"/>
-        <v>0.16960833482214691</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="2"/>
-        <v>22.1</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="3"/>
-        <v>0.25769824849675355</v>
-      </c>
-      <c r="M36" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H36</f>
-        <v>16.5</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18010000000000001</v>
-      </c>
-      <c r="O36" s="2">
-        <f t="shared" si="5"/>
-        <v>19.082658514012259</v>
-      </c>
-      <c r="P36" s="2">
-        <f t="shared" si="6"/>
-        <v>0.21077964692201479</v>
-      </c>
-      <c r="Q36" s="2">
-        <f t="shared" si="7"/>
-        <v>22.275000000000002</v>
-      </c>
-      <c r="R36" s="2">
-        <f t="shared" si="8"/>
         <v>0.26179596412556061</v>
       </c>
     </row>
     <row r="37" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H37" s="2">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>15.88</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="11"/>
+        <v>0.17579664916660306</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="3"/>
+        <v>22.6</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="4"/>
+        <v>0.26433215187708892</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18547727272727274</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="6"/>
+        <v>19.660920893224752</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21877163887214079</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="8"/>
+        <v>22.950000000000003</v>
+      </c>
+      <c r="R37" s="2">
         <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="1"/>
-        <v>15.88</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="10"/>
-        <v>0.17579664916660306</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="2"/>
-        <v>22.6</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="3"/>
-        <v>0.26433215187708892</v>
-      </c>
-      <c r="M37" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H37</f>
-        <v>17</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18547727272727274</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="5"/>
-        <v>19.660920893224752</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" si="6"/>
-        <v>0.21877163887214079</v>
-      </c>
-      <c r="Q37" s="2">
-        <f t="shared" si="7"/>
-        <v>22.950000000000003</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="8"/>
         <v>0.27518224299065425</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H38" s="2">
+        <f t="shared" si="10"/>
+        <v>17.5</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="2"/>
+        <v>16.380000000000003</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="11"/>
+        <v>0.18211715974607681</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="3"/>
+        <v>23.1</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27109068418899246</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="12"/>
+        <v>17.5</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19110465116279068</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="6"/>
+        <v>20.239183272437245</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22725630321993895</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="8"/>
+        <v>23.625</v>
+      </c>
+      <c r="R38" s="2">
         <f t="shared" si="9"/>
-        <v>17.5</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="1"/>
-        <v>16.380000000000003</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="10"/>
-        <v>0.18211715974607681</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="2"/>
-        <v>23.1</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="3"/>
-        <v>0.27109068418899246</v>
-      </c>
-      <c r="M38" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H38</f>
-        <v>17.5</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19110465116279068</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="5"/>
-        <v>20.239183272437245</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" si="6"/>
-        <v>0.22725630321993895</v>
-      </c>
-      <c r="Q38" s="2">
-        <f t="shared" si="7"/>
-        <v>23.625</v>
-      </c>
-      <c r="R38" s="2">
-        <f t="shared" si="8"/>
         <v>0.28974390243902437</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H39" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="2"/>
+        <v>16.880000000000003</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="11"/>
+        <v>0.18855463218331175</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="3"/>
+        <v>23.6</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27807005729422973</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="6"/>
+        <v>20.817445651649738</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23628064555781247</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="8"/>
+        <v>24.3</v>
+      </c>
+      <c r="R39" s="2">
         <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="1"/>
-        <v>16.880000000000003</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="10"/>
-        <v>0.18855463218331175</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="2"/>
-        <v>23.6</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.27807005729422973</v>
-      </c>
-      <c r="M39" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H39</f>
-        <v>18</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="5"/>
-        <v>20.817445651649738</v>
-      </c>
-      <c r="P39" s="2">
-        <f t="shared" si="6"/>
-        <v>0.23628064555781247</v>
-      </c>
-      <c r="Q39" s="2">
-        <f t="shared" si="7"/>
-        <v>24.3</v>
-      </c>
-      <c r="R39" s="2">
-        <f t="shared" si="8"/>
         <v>0.30564285714285716</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H40" s="2">
+        <f t="shared" si="10"/>
+        <v>18.5</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="2"/>
+        <v>17.380000000000003</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="11"/>
+        <v>0.19508951712240696</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="3"/>
+        <v>24.1</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="4"/>
+        <v>0.28539684864926806</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="12"/>
+        <v>18.5</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20318292682926831</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="6"/>
+        <v>21.395708030862231</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.24589784760061195</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="8"/>
+        <v>24.975000000000001</v>
+      </c>
+      <c r="R40" s="2">
         <f t="shared" si="9"/>
-        <v>18.5</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="1"/>
-        <v>17.380000000000003</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="10"/>
-        <v>0.19508951712240696</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" si="2"/>
-        <v>24.1</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="3"/>
-        <v>0.28539684864926806</v>
-      </c>
-      <c r="M40" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H40</f>
-        <v>18.5</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20318292682926831</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="5"/>
-        <v>21.395708030862231</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" si="6"/>
-        <v>0.24589784760061195</v>
-      </c>
-      <c r="Q40" s="2">
-        <f t="shared" si="7"/>
-        <v>24.975000000000001</v>
-      </c>
-      <c r="R40" s="2">
-        <f t="shared" si="8"/>
         <v>0.32307219251336905</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H41" s="2">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="2"/>
+        <v>17.880000000000003</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="11"/>
+        <v>0.20169910002865615</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="3"/>
+        <v>24.6</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="4"/>
+        <v>0.29323224230507394</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="5"/>
+        <v>0.209675</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="6"/>
+        <v>21.97397041007472</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25616831599717449</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="8"/>
+        <v>25.650000000000002</v>
+      </c>
+      <c r="R41" s="2">
         <f t="shared" si="9"/>
-        <v>19</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="1"/>
-        <v>17.880000000000003</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="10"/>
-        <v>0.20169910002865615</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="2"/>
-        <v>24.6</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="3"/>
-        <v>0.29323224230507394</v>
-      </c>
-      <c r="M41" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H41</f>
-        <v>19</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="4"/>
-        <v>0.209675</v>
-      </c>
-      <c r="O41" s="2">
-        <f t="shared" si="5"/>
-        <v>21.97397041007472</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" si="6"/>
-        <v>0.25616831599717449</v>
-      </c>
-      <c r="Q41" s="2">
-        <f t="shared" si="7"/>
-        <v>25.650000000000002</v>
-      </c>
-      <c r="R41" s="2">
-        <f t="shared" si="8"/>
         <v>0.34226404494382034</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H42" s="2">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="2"/>
+        <v>18.380000000000003</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="11"/>
+        <v>0.20835888098837796</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="3"/>
+        <v>25.1</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30177649990686994</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="12"/>
+        <v>19.5</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21650000000000003</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="6"/>
+        <v>22.552232789287213</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26716095238341464</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="8"/>
+        <v>26.325000000000003</v>
+      </c>
+      <c r="R42" s="2">
         <f t="shared" si="9"/>
-        <v>19.5</v>
-      </c>
-      <c r="I42" s="2">
-        <f t="shared" si="1"/>
-        <v>18.380000000000003</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" si="10"/>
-        <v>0.20835888098837796</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="2"/>
-        <v>25.1</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="3"/>
-        <v>0.30177649990686994</v>
-      </c>
-      <c r="M42" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H42</f>
-        <v>19.5</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" si="4"/>
-        <v>0.21650000000000003</v>
-      </c>
-      <c r="O42" s="2">
-        <f t="shared" si="5"/>
-        <v>22.552232789287213</v>
-      </c>
-      <c r="P42" s="2">
-        <f t="shared" si="6"/>
-        <v>0.26716095238341464</v>
-      </c>
-      <c r="Q42" s="2">
-        <f t="shared" si="7"/>
-        <v>26.325000000000003</v>
-      </c>
-      <c r="R42" s="2">
-        <f t="shared" si="8"/>
         <v>0.3635000000000001</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H43" s="2">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="2"/>
+        <v>18.880000000000003</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21504418450873269</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="3"/>
+        <v>25.6</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="4"/>
+        <v>0.31127366169387882</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22368421052631582</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="6"/>
+        <v>23.130495168499706</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="7"/>
+        <v>0.278954701109078</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="R43" s="2">
         <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" si="1"/>
-        <v>18.880000000000003</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21504418450873269</v>
-      </c>
-      <c r="K43" s="2">
-        <f t="shared" si="2"/>
-        <v>25.6</v>
-      </c>
-      <c r="L43" s="2">
-        <f t="shared" si="3"/>
-        <v>0.31127366169387882</v>
-      </c>
-      <c r="M43" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H43</f>
-        <v>20</v>
-      </c>
-      <c r="N43" s="2">
-        <f t="shared" si="4"/>
-        <v>0.22368421052631582</v>
-      </c>
-      <c r="O43" s="2">
-        <f t="shared" si="5"/>
-        <v>23.130495168499706</v>
-      </c>
-      <c r="P43" s="2">
-        <f t="shared" si="6"/>
-        <v>0.278954701109078</v>
-      </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="R43" s="2">
-        <f t="shared" si="8"/>
         <v>0.387125</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H44" s="2">
+        <f t="shared" si="10"/>
+        <v>20.5</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="2"/>
+        <v>19.380000000000003</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="11"/>
+        <v>0.22173199931754992</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="3"/>
+        <v>26.1</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32201647749908535</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="12"/>
+        <v>20.5</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23125675675675678</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="6"/>
+        <v>23.708757547712199</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="7"/>
+        <v>0.29164044814282075</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="8"/>
+        <v>27.675000000000001</v>
+      </c>
+      <c r="R44" s="2">
         <f t="shared" si="9"/>
-        <v>20.5</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="1"/>
-        <v>19.380000000000003</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="10"/>
-        <v>0.22173199931754992</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="2"/>
-        <v>26.1</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" si="3"/>
-        <v>0.32201647749908535</v>
-      </c>
-      <c r="M44" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H44</f>
-        <v>20.5</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" si="4"/>
-        <v>0.23125675675675678</v>
-      </c>
-      <c r="O44" s="2">
-        <f t="shared" si="5"/>
-        <v>23.708757547712199</v>
-      </c>
-      <c r="P44" s="2">
-        <f t="shared" si="6"/>
-        <v>0.29164044814282075</v>
-      </c>
-      <c r="Q44" s="2">
-        <f t="shared" si="7"/>
-        <v>27.675000000000001</v>
-      </c>
-      <c r="R44" s="2">
-        <f t="shared" si="8"/>
         <v>0.41356622516556296</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H45" s="2">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="2"/>
+        <v>19.880000000000003</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="11"/>
+        <v>0.22840304816314186</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="3"/>
+        <v>26.6</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="4"/>
+        <v>0.3343515677489976</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23924999999999996</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="6"/>
+        <v>24.287019926924692</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="7"/>
+        <v>0.30532336777183455</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="8"/>
+        <v>28.35</v>
+      </c>
+      <c r="R45" s="2">
         <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="1"/>
-        <v>19.880000000000003</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" si="10"/>
-        <v>0.22840304816314186</v>
-      </c>
-      <c r="K45" s="2">
-        <f t="shared" si="2"/>
-        <v>26.6</v>
-      </c>
-      <c r="L45" s="2">
-        <f t="shared" si="3"/>
-        <v>0.3343515677489976</v>
-      </c>
-      <c r="M45" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H45</f>
-        <v>21</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" si="4"/>
-        <v>0.23924999999999996</v>
-      </c>
-      <c r="O45" s="2">
-        <f t="shared" si="5"/>
-        <v>24.287019926924692</v>
-      </c>
-      <c r="P45" s="2">
-        <f t="shared" si="6"/>
-        <v>0.30532336777183455</v>
-      </c>
-      <c r="Q45" s="2">
-        <f t="shared" si="7"/>
-        <v>28.35</v>
-      </c>
-      <c r="R45" s="2">
-        <f t="shared" si="8"/>
         <v>0.44335915492957761</v>
       </c>
     </row>
     <row r="46" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H46" s="2">
+        <f t="shared" si="10"/>
+        <v>21.5</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="2"/>
+        <v>20.380000000000003</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="11"/>
+        <v>0.23504408761411696</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="3"/>
+        <v>27.1</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="4"/>
+        <v>0.34868481446335964</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="12"/>
+        <v>21.5</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="5"/>
+        <v>0.24770000000000003</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="6"/>
+        <v>24.865282306137185</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="7"/>
+        <v>0.32012584533339655</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="8"/>
+        <v>29.025000000000002</v>
+      </c>
+      <c r="R46" s="2">
         <f t="shared" si="9"/>
-        <v>21.5</v>
-      </c>
-      <c r="I46" s="2">
-        <f t="shared" si="1"/>
-        <v>20.380000000000003</v>
-      </c>
-      <c r="J46" s="2">
-        <f t="shared" si="10"/>
-        <v>0.23504408761411696</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="2"/>
-        <v>27.1</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="3"/>
-        <v>0.34868481446335964</v>
-      </c>
-      <c r="M46" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H46</f>
-        <v>21.5</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24770000000000003</v>
-      </c>
-      <c r="O46" s="2">
-        <f t="shared" si="5"/>
-        <v>24.865282306137185</v>
-      </c>
-      <c r="P46" s="2">
-        <f t="shared" si="6"/>
-        <v>0.32012584533339655</v>
-      </c>
-      <c r="Q46" s="2">
-        <f t="shared" si="7"/>
-        <v>29.025000000000002</v>
-      </c>
-      <c r="R46" s="2">
-        <f t="shared" si="8"/>
         <v>0.47718421052631588</v>
       </c>
     </row>
     <row r="47" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H47" s="2">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="2"/>
+        <v>20.880000000000003</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="11"/>
+        <v>0.24165043785917009</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="3"/>
+        <v>27.6</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="4"/>
+        <v>0.36548698225491699</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="5"/>
+        <v>0.25664705882352939</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="6"/>
+        <v>25.443544685349679</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33619114797634075</v>
+      </c>
+      <c r="Q47" s="2">
+        <f t="shared" si="8"/>
+        <v>29.700000000000003</v>
+      </c>
+      <c r="R47" s="2">
         <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="I47" s="2">
-        <f t="shared" si="1"/>
-        <v>20.880000000000003</v>
-      </c>
-      <c r="J47" s="2">
-        <f t="shared" si="10"/>
-        <v>0.24165043785917009</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="2"/>
-        <v>27.6</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" si="3"/>
-        <v>0.36548698225491699</v>
-      </c>
-      <c r="M47" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H47</f>
-        <v>22</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" si="4"/>
-        <v>0.25664705882352939</v>
-      </c>
-      <c r="O47" s="2">
-        <f t="shared" si="5"/>
-        <v>25.443544685349679</v>
-      </c>
-      <c r="P47" s="2">
-        <f t="shared" si="6"/>
-        <v>0.33619114797634075</v>
-      </c>
-      <c r="Q47" s="2">
-        <f t="shared" si="7"/>
-        <v>29.700000000000003</v>
-      </c>
-      <c r="R47" s="2">
-        <f t="shared" si="8"/>
         <v>0.51591935483870988</v>
       </c>
     </row>
     <row r="48" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H48" s="2">
+        <f t="shared" si="10"/>
+        <v>22.5</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="2"/>
+        <v>21.380000000000003</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="11"/>
+        <v>0.24822874250690183</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="3"/>
+        <v>28.1</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="4"/>
+        <v>0.38529956932913245</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="12"/>
+        <v>22.5</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="5"/>
+        <v>0.26613636363636362</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="6"/>
+        <v>26.021807064562172</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35368807675942504</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" si="8"/>
+        <v>30.375000000000004</v>
+      </c>
+      <c r="R48" s="2">
         <f t="shared" si="9"/>
-        <v>22.5</v>
-      </c>
-      <c r="I48" s="2">
-        <f t="shared" si="1"/>
-        <v>21.380000000000003</v>
-      </c>
-      <c r="J48" s="2">
-        <f t="shared" si="10"/>
-        <v>0.24822874250690183</v>
-      </c>
-      <c r="K48" s="2">
-        <f t="shared" si="2"/>
-        <v>28.1</v>
-      </c>
-      <c r="L48" s="2">
-        <f t="shared" si="3"/>
-        <v>0.38529956932913245</v>
-      </c>
-      <c r="M48" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H48</f>
-        <v>22.5</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" si="4"/>
-        <v>0.26613636363636362</v>
-      </c>
-      <c r="O48" s="2">
-        <f t="shared" si="5"/>
-        <v>26.021807064562172</v>
-      </c>
-      <c r="P48" s="2">
-        <f t="shared" si="6"/>
-        <v>0.35368807675942504</v>
-      </c>
-      <c r="Q48" s="2">
-        <f t="shared" si="7"/>
-        <v>30.375000000000004</v>
-      </c>
-      <c r="R48" s="2">
-        <f t="shared" si="8"/>
         <v>0.56071739130434817</v>
       </c>
     </row>
     <row r="49" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H49" s="2">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="2"/>
+        <v>21.880000000000003</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25479995838560709</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="3"/>
+        <v>28.6</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="4"/>
+        <v>0.40874088848391471</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="5"/>
+        <v>0.27621875000000001</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="6"/>
+        <v>26.600069443774665</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="7"/>
+        <v>0.3728169204344744</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="8"/>
+        <v>31.05</v>
+      </c>
+      <c r="R49" s="2">
         <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" si="1"/>
-        <v>21.880000000000003</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" si="10"/>
-        <v>0.25479995838560709</v>
-      </c>
-      <c r="K49" s="2">
-        <f t="shared" si="2"/>
-        <v>28.6</v>
-      </c>
-      <c r="L49" s="2">
-        <f t="shared" si="3"/>
-        <v>0.40874088848391471</v>
-      </c>
-      <c r="M49" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H49</f>
-        <v>23</v>
-      </c>
-      <c r="N49" s="2">
-        <f t="shared" si="4"/>
-        <v>0.27621875000000001</v>
-      </c>
-      <c r="O49" s="2">
-        <f t="shared" si="5"/>
-        <v>26.600069443774665</v>
-      </c>
-      <c r="P49" s="2">
-        <f t="shared" si="6"/>
-        <v>0.3728169204344744</v>
-      </c>
-      <c r="Q49" s="2">
-        <f t="shared" si="7"/>
-        <v>31.05</v>
-      </c>
-      <c r="R49" s="2">
-        <f t="shared" si="8"/>
         <v>0.61312264150943407</v>
       </c>
     </row>
     <row r="50" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H50" s="2">
+        <f t="shared" si="10"/>
+        <v>23.5</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="2"/>
+        <v>22.380000000000003</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="11"/>
+        <v>0.26140257534305095</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="3"/>
+        <v>29.1</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4365123781093776</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="12"/>
+        <v>23.5</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="5"/>
+        <v>0.28695161290322579</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="6"/>
+        <v>27.178331822987158</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39381715662189809</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="8"/>
+        <v>31.725000000000001</v>
+      </c>
+      <c r="R50" s="2">
         <f t="shared" si="9"/>
-        <v>23.5</v>
-      </c>
-      <c r="I50" s="2">
-        <f t="shared" si="1"/>
-        <v>22.380000000000003</v>
-      </c>
-      <c r="J50" s="2">
-        <f t="shared" si="10"/>
-        <v>0.26140257534305095</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="2"/>
-        <v>29.1</v>
-      </c>
-      <c r="L50" s="2">
-        <f t="shared" si="3"/>
-        <v>0.4365123781093776</v>
-      </c>
-      <c r="M50" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H50</f>
-        <v>23.5</v>
-      </c>
-      <c r="N50" s="2">
-        <f t="shared" si="4"/>
-        <v>0.28695161290322579</v>
-      </c>
-      <c r="O50" s="2">
-        <f t="shared" si="5"/>
-        <v>27.178331822987158</v>
-      </c>
-      <c r="P50" s="2">
-        <f t="shared" si="6"/>
-        <v>0.39381715662189809</v>
-      </c>
-      <c r="Q50" s="2">
-        <f t="shared" si="7"/>
-        <v>31.725000000000001</v>
-      </c>
-      <c r="R50" s="2">
-        <f t="shared" si="8"/>
         <v>0.67525257731958765</v>
       </c>
     </row>
     <row r="51" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H51" s="2">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="2"/>
+        <v>22.880000000000003</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="11"/>
+        <v>0.26809606604628</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="3"/>
+        <v>29.6</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="4"/>
+        <v>0.46940514318746729</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="5"/>
+        <v>0.29840000000000005</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="6"/>
+        <v>27.756594202199651</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="7"/>
+        <v>0.41697752947256289</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="8"/>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="R51" s="2">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="1"/>
-        <v>22.880000000000003</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" si="10"/>
-        <v>0.26809606604628</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" si="2"/>
-        <v>29.6</v>
-      </c>
-      <c r="L51" s="2">
-        <f t="shared" si="3"/>
-        <v>0.46940514318746729</v>
-      </c>
-      <c r="M51" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H51</f>
-        <v>24</v>
-      </c>
-      <c r="N51" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29840000000000005</v>
-      </c>
-      <c r="O51" s="2">
-        <f t="shared" si="5"/>
-        <v>27.756594202199651</v>
-      </c>
-      <c r="P51" s="2">
-        <f t="shared" si="6"/>
-        <v>0.41697752947256289</v>
-      </c>
-      <c r="Q51" s="2">
-        <f t="shared" si="7"/>
-        <v>32.400000000000006</v>
-      </c>
-      <c r="R51" s="2">
-        <f t="shared" si="8"/>
         <v>0.75009090909090981</v>
       </c>
     </row>
     <row r="52" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H52" s="2">
+        <f t="shared" si="10"/>
+        <v>24.5</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="2"/>
+        <v>23.380000000000003</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="11"/>
+        <v>0.27496456578137146</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="12"/>
+        <v>24.5</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="5"/>
+        <v>0.31063793103448278</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="6"/>
+        <v>28.33485658141214</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="7"/>
+        <v>0.44264940578500622</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="8"/>
+        <v>33.075000000000003</v>
+      </c>
+      <c r="R52" s="2">
         <f t="shared" si="9"/>
-        <v>24.5</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" si="1"/>
-        <v>23.380000000000003</v>
-      </c>
-      <c r="J52" s="2">
+        <v>0.84198101265822844</v>
+      </c>
+    </row>
+    <row r="53" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H53" s="2">
         <f t="shared" si="10"/>
-        <v>0.27496456578137146</v>
-      </c>
-      <c r="K52" s="2">
+        <v>25</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="2"/>
+        <v>23.880000000000003</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="11"/>
+        <v>0.28212078225323878</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="5"/>
+        <v>0.32375000000000004</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="6"/>
+        <v>28.913118960624633</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4712647252127859</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" si="8"/>
+        <v>33.75</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="9"/>
+        <v>0.95750000000000024</v>
+      </c>
+    </row>
+    <row r="54" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H54" s="2">
+        <f t="shared" si="10"/>
+        <v>25.5</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="2"/>
+        <v>24.380000000000003</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="11"/>
+        <v>0.28971013538538221</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="12"/>
+        <v>25.5</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="5"/>
+        <v>0.33783333333333332</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="6"/>
+        <v>29.491381339837126</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="7"/>
+        <v>0.50336050027468582</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="8"/>
+        <v>34.425000000000004</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="9"/>
+        <v>1.10710655737705</v>
+      </c>
+    </row>
+    <row r="55" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H55" s="2">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="2"/>
+        <v>24.880000000000003</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="11"/>
+        <v>0.29791512711965751</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="5"/>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="6"/>
+        <v>30.069643719049619</v>
+      </c>
+      <c r="P55" s="2">
+        <f t="shared" si="7"/>
+        <v>0.53961283497789703</v>
+      </c>
+      <c r="Q55" s="2">
+        <f t="shared" si="8"/>
+        <v>35.1</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" si="9"/>
+        <v>1.3085000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H56" s="2">
+        <f t="shared" si="10"/>
+        <v>26.5</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="2"/>
+        <v>25.380000000000003</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="11"/>
+        <v>0.30695994121602987</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="12"/>
+        <v>26.5</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="5"/>
+        <v>0.36938000000000004</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="6"/>
+        <v>30.647906098262112</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="7"/>
+        <v>0.5808850752435023</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="8"/>
+        <v>35.775000000000006</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" si="9"/>
+        <v>1.5941976744186084</v>
+      </c>
+    </row>
+    <row r="57" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H57" s="2">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="2"/>
+        <v>25.880000000000003</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="11"/>
+        <v>0.3171152730523481</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="5"/>
+        <v>0.387125</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="6"/>
+        <v>31.226168477474605</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="7"/>
+        <v>0.62829744956842282</v>
+      </c>
+      <c r="Q57" s="2">
+        <f t="shared" si="8"/>
+        <v>36.450000000000003</v>
+      </c>
+      <c r="R57" s="2">
+        <f t="shared" si="9"/>
+        <v>2.0311470588235334</v>
+      </c>
+    </row>
+    <row r="58" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H58" s="2">
+        <f t="shared" si="10"/>
+        <v>27.5</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="2"/>
+        <v>26.380000000000003</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="11"/>
+        <v>0.32870338942408539</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="12"/>
+        <v>27.5</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="5"/>
+        <v>0.40641304347826096</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="6"/>
+        <v>31.804430856687098</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" si="7"/>
+        <v>0.68333028916445304</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" si="8"/>
+        <v>37.125</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" si="9"/>
+        <v>2.7826999999999975</v>
+      </c>
+    </row>
+    <row r="59" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H59" s="2">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="2"/>
+        <v>26.880000000000003</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="11"/>
+        <v>0.34210341834406421</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="5"/>
+        <v>0.42745454545454548</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="6"/>
+        <v>32.382693235899588</v>
+      </c>
+      <c r="P59" s="2">
+        <f t="shared" si="7"/>
+        <v>0.74798136829329875</v>
+      </c>
+      <c r="Q59" s="2">
+        <f t="shared" si="8"/>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="R59" s="2">
+        <f t="shared" si="9"/>
+        <v>4.3797500000000165</v>
+      </c>
+    </row>
+    <row r="60" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H60" s="2">
+        <f t="shared" si="10"/>
+        <v>28.5</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="2"/>
+        <v>27.380000000000003</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35775686884222202</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="12"/>
+        <v>28.5</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="5"/>
+        <v>0.45049999999999996</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="6"/>
+        <v>32.960955615112084</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" si="7"/>
+        <v>0.82501364035699232</v>
+      </c>
+      <c r="Q60" s="2">
+        <f t="shared" si="8"/>
+        <v>38.475000000000001</v>
+      </c>
+      <c r="R60" s="2">
+        <f t="shared" si="9"/>
+        <v>10.083500000000036</v>
+      </c>
+    </row>
+    <row r="61" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H61" s="2">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="2"/>
+        <v>27.880000000000003</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="11"/>
+        <v>0.37617338076534351</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="5"/>
+        <v>0.47585000000000005</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="6"/>
+        <v>33.539217994324574</v>
+      </c>
+      <c r="P61" s="2">
+        <f t="shared" si="7"/>
+        <v>0.91836037612694521</v>
+      </c>
+      <c r="Q61" s="2">
+        <f t="shared" si="8"/>
+        <v>39.150000000000006</v>
+      </c>
+      <c r="R61" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H62" s="2">
+        <f t="shared" si="10"/>
+        <v>29.5</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="2"/>
+        <v>28.380000000000003</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39793670457678476</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" si="12"/>
+        <v>29.5</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="5"/>
+        <v>0.50386842105263152</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="6"/>
+        <v>34.11748037353707</v>
+      </c>
+      <c r="P62" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0338181978310923</v>
+      </c>
+      <c r="Q62" s="2">
+        <f t="shared" si="8"/>
+        <v>39.825000000000003</v>
+      </c>
+      <c r="R62" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="63" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H63" s="2">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="2"/>
+        <v>28.880000000000003</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="11"/>
+        <v>0.42371091115618703</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" si="5"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" si="6"/>
+        <v>34.69574275274956</v>
+      </c>
+      <c r="P63" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1802987539315064</v>
+      </c>
+      <c r="Q63" s="2">
+        <f t="shared" si="8"/>
+        <v>40.5</v>
+      </c>
+      <c r="R63" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="64" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H64" s="2">
+        <f t="shared" si="10"/>
+        <v>30.5</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="2"/>
+        <v>29.380000000000003</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="11"/>
+        <v>0.45424683159920398</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M64" s="2">
+        <f t="shared" si="12"/>
+        <v>30.5</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" si="5"/>
+        <v>0.56979411764705878</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" si="6"/>
+        <v>35.274005131962056</v>
+      </c>
+      <c r="P64" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3722459292189733</v>
+      </c>
+      <c r="Q64" s="2">
+        <f t="shared" si="8"/>
+        <v>41.175000000000004</v>
+      </c>
+      <c r="R64" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="65" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H65" s="2">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="2"/>
+        <v>29.879999999999995</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="11"/>
+        <v>0.49038872701725067</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M65" s="2">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="5"/>
+        <v>0.6089374999999998</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="6"/>
+        <v>35.852267511174546</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6347174140904874</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" si="8"/>
+        <v>41.85</v>
+      </c>
+      <c r="R65" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H66" s="2">
+        <f t="shared" si="10"/>
+        <v>31.5</v>
+      </c>
+      <c r="I66" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="L52" s="2">
+      <c r="J66" s="2">
+        <f t="shared" si="11"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K66" s="2">
         <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="4"/>
         <v>0.49999968427934049</v>
       </c>
-      <c r="M52" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H52</f>
-        <v>24.5</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" si="4"/>
-        <v>0.31063793103448278</v>
-      </c>
-      <c r="O52" s="2">
+      <c r="M66" s="2">
+        <f t="shared" si="12"/>
+        <v>31.5</v>
+      </c>
+      <c r="N66" s="2">
         <f t="shared" si="5"/>
-        <v>28.33485658141214</v>
-      </c>
-      <c r="P52" s="2">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="O66" s="2">
         <f t="shared" si="6"/>
-        <v>0.44264940578500622</v>
-      </c>
-      <c r="Q52" s="2">
+        <v>36.430529890387042</v>
+      </c>
+      <c r="P66" s="2">
         <f t="shared" si="7"/>
-        <v>33.075000000000003</v>
-      </c>
-      <c r="R52" s="2">
+        <v>2.0153279539752602</v>
+      </c>
+      <c r="Q66" s="2">
         <f t="shared" si="8"/>
-        <v>0.84198101265822844</v>
-      </c>
-    </row>
-    <row r="53" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H53" s="2">
+        <v>42.525000000000006</v>
+      </c>
+      <c r="R66" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="1"/>
-        <v>23.880000000000003</v>
-      </c>
-      <c r="J53" s="2">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H67" s="2">
         <f t="shared" si="10"/>
-        <v>0.28212078225323878</v>
-      </c>
-      <c r="K53" s="2">
+        <v>32</v>
+      </c>
+      <c r="I67" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="L53" s="2">
+      <c r="J67" s="2">
+        <f t="shared" ref="J67:J98" si="13">$G$2*I67^6+$G$3*I67^5+$G$4*I67^4+$G$5*I67^3+$G$6*I67^2+$G$7*I67^1+$G$8</f>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K67" s="2">
         <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="4"/>
         <v>0.49999968427934049</v>
       </c>
-      <c r="M53" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H53</f>
-        <v>25</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" si="4"/>
-        <v>0.32375000000000004</v>
-      </c>
-      <c r="O53" s="2">
+      <c r="M67" s="2">
+        <f t="shared" ref="M67:M98" si="14">IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H67</f>
+        <v>32</v>
+      </c>
+      <c r="N67" s="2">
         <f t="shared" si="5"/>
-        <v>28.913118960624633</v>
-      </c>
-      <c r="P53" s="2">
+        <v>0.70399999999999985</v>
+      </c>
+      <c r="O67" s="2">
         <f t="shared" si="6"/>
-        <v>0.4712647252127859</v>
-      </c>
-      <c r="Q53" s="2">
+        <v>37.008792269599532</v>
+      </c>
+      <c r="P67" s="2">
         <f t="shared" si="7"/>
-        <v>33.75</v>
-      </c>
-      <c r="R53" s="2">
+        <v>2.6170030799269455</v>
+      </c>
+      <c r="Q67" s="2">
         <f t="shared" si="8"/>
-        <v>0.95750000000000024</v>
-      </c>
-    </row>
-    <row r="54" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H54" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="R67" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>25.5</v>
-      </c>
-      <c r="I54" s="2">
-        <f t="shared" si="1"/>
-        <v>24.380000000000003</v>
-      </c>
-      <c r="J54" s="2">
-        <f t="shared" si="10"/>
-        <v>0.28971013538538221</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L54" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M54" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H54</f>
-        <v>25.5</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" si="4"/>
-        <v>0.33783333333333332</v>
-      </c>
-      <c r="O54" s="2">
-        <f t="shared" si="5"/>
-        <v>29.491381339837126</v>
-      </c>
-      <c r="P54" s="2">
-        <f t="shared" si="6"/>
-        <v>0.50336050027468582</v>
-      </c>
-      <c r="Q54" s="2">
-        <f t="shared" si="7"/>
-        <v>34.425000000000004</v>
-      </c>
-      <c r="R54" s="2">
-        <f t="shared" si="8"/>
-        <v>1.10710655737705</v>
-      </c>
-    </row>
-    <row r="55" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H55" s="2">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="1"/>
-        <v>24.880000000000003</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" si="10"/>
-        <v>0.29791512711965751</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M55" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H55</f>
-        <v>26</v>
-      </c>
-      <c r="N55" s="2">
-        <f t="shared" si="4"/>
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="O55" s="2">
-        <f t="shared" si="5"/>
-        <v>30.069643719049619</v>
-      </c>
-      <c r="P55" s="2">
-        <f t="shared" si="6"/>
-        <v>0.53961283497789703</v>
-      </c>
-      <c r="Q55" s="2">
-        <f t="shared" si="7"/>
-        <v>35.1</v>
-      </c>
-      <c r="R55" s="2">
-        <f t="shared" si="8"/>
-        <v>1.3085000000000004</v>
-      </c>
-    </row>
-    <row r="56" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H56" s="2">
-        <f t="shared" si="9"/>
-        <v>26.5</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" si="1"/>
-        <v>25.380000000000003</v>
-      </c>
-      <c r="J56" s="2">
-        <f t="shared" si="10"/>
-        <v>0.30695994121602987</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L56" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M56" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H56</f>
-        <v>26.5</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" si="4"/>
-        <v>0.36938000000000004</v>
-      </c>
-      <c r="O56" s="2">
-        <f t="shared" si="5"/>
-        <v>30.647906098262112</v>
-      </c>
-      <c r="P56" s="2">
-        <f t="shared" si="6"/>
-        <v>0.5808850752435023</v>
-      </c>
-      <c r="Q56" s="2">
-        <f t="shared" si="7"/>
-        <v>35.775000000000006</v>
-      </c>
-      <c r="R56" s="2">
-        <f t="shared" si="8"/>
-        <v>1.5941976744186084</v>
-      </c>
-    </row>
-    <row r="57" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H57" s="2">
-        <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="I57" s="2">
-        <f t="shared" si="1"/>
-        <v>25.880000000000003</v>
-      </c>
-      <c r="J57" s="2">
-        <f t="shared" si="10"/>
-        <v>0.3171152730523481</v>
-      </c>
-      <c r="K57" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L57" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M57" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H57</f>
-        <v>27</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" si="4"/>
-        <v>0.387125</v>
-      </c>
-      <c r="O57" s="2">
-        <f t="shared" si="5"/>
-        <v>31.226168477474605</v>
-      </c>
-      <c r="P57" s="2">
-        <f t="shared" si="6"/>
-        <v>0.62829744956842282</v>
-      </c>
-      <c r="Q57" s="2">
-        <f t="shared" si="7"/>
-        <v>36.450000000000003</v>
-      </c>
-      <c r="R57" s="2">
-        <f t="shared" si="8"/>
-        <v>2.0311470588235334</v>
-      </c>
-    </row>
-    <row r="58" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H58" s="2">
-        <f t="shared" si="9"/>
-        <v>27.5</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" si="1"/>
-        <v>26.380000000000003</v>
-      </c>
-      <c r="J58" s="2">
-        <f t="shared" si="10"/>
-        <v>0.32870338942408539</v>
-      </c>
-      <c r="K58" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L58" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M58" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H58</f>
-        <v>27.5</v>
-      </c>
-      <c r="N58" s="2">
-        <f t="shared" si="4"/>
-        <v>0.40641304347826096</v>
-      </c>
-      <c r="O58" s="2">
-        <f t="shared" si="5"/>
-        <v>31.804430856687098</v>
-      </c>
-      <c r="P58" s="2">
-        <f t="shared" si="6"/>
-        <v>0.68333028916445304</v>
-      </c>
-      <c r="Q58" s="2">
-        <f t="shared" si="7"/>
-        <v>37.125</v>
-      </c>
-      <c r="R58" s="2">
-        <f t="shared" si="8"/>
-        <v>2.7826999999999975</v>
-      </c>
-    </row>
-    <row r="59" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H59" s="2">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="1"/>
-        <v>26.880000000000003</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="10"/>
-        <v>0.34210341834406421</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L59" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M59" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H59</f>
-        <v>28</v>
-      </c>
-      <c r="N59" s="2">
-        <f t="shared" si="4"/>
-        <v>0.42745454545454548</v>
-      </c>
-      <c r="O59" s="2">
-        <f t="shared" si="5"/>
-        <v>32.382693235899588</v>
-      </c>
-      <c r="P59" s="2">
-        <f t="shared" si="6"/>
-        <v>0.74798136829329875</v>
-      </c>
-      <c r="Q59" s="2">
-        <f t="shared" si="7"/>
-        <v>37.800000000000004</v>
-      </c>
-      <c r="R59" s="2">
-        <f t="shared" si="8"/>
-        <v>4.3797500000000165</v>
-      </c>
-    </row>
-    <row r="60" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H60" s="2">
-        <f t="shared" si="9"/>
-        <v>28.5</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="1"/>
-        <v>27.380000000000003</v>
-      </c>
-      <c r="J60" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35775686884222202</v>
-      </c>
-      <c r="K60" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L60" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M60" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H60</f>
-        <v>28.5</v>
-      </c>
-      <c r="N60" s="2">
-        <f t="shared" si="4"/>
-        <v>0.45049999999999996</v>
-      </c>
-      <c r="O60" s="2">
-        <f t="shared" si="5"/>
-        <v>32.960955615112084</v>
-      </c>
-      <c r="P60" s="2">
-        <f t="shared" si="6"/>
-        <v>0.82501364035699232</v>
-      </c>
-      <c r="Q60" s="2">
-        <f t="shared" si="7"/>
-        <v>38.475000000000001</v>
-      </c>
-      <c r="R60" s="2">
-        <f t="shared" si="8"/>
-        <v>10.083500000000036</v>
-      </c>
-    </row>
-    <row r="61" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H61" s="2">
-        <f t="shared" si="9"/>
-        <v>29</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" si="1"/>
-        <v>27.880000000000003</v>
-      </c>
-      <c r="J61" s="2">
-        <f t="shared" si="10"/>
-        <v>0.37617338076534351</v>
-      </c>
-      <c r="K61" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L61" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M61" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H61</f>
-        <v>29</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" si="4"/>
-        <v>0.47585000000000005</v>
-      </c>
-      <c r="O61" s="2">
-        <f t="shared" si="5"/>
-        <v>33.539217994324574</v>
-      </c>
-      <c r="P61" s="2">
-        <f t="shared" si="6"/>
-        <v>0.91836037612694521</v>
-      </c>
-      <c r="Q61" s="2">
-        <f t="shared" si="7"/>
-        <v>39.150000000000006</v>
-      </c>
-      <c r="R61" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="62" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H62" s="2">
-        <f t="shared" si="9"/>
-        <v>29.5</v>
-      </c>
-      <c r="I62" s="2">
-        <f t="shared" si="1"/>
-        <v>28.380000000000003</v>
-      </c>
-      <c r="J62" s="2">
-        <f t="shared" si="10"/>
-        <v>0.39793670457678476</v>
-      </c>
-      <c r="K62" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L62" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M62" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H62</f>
-        <v>29.5</v>
-      </c>
-      <c r="N62" s="2">
-        <f t="shared" si="4"/>
-        <v>0.50386842105263152</v>
-      </c>
-      <c r="O62" s="2">
-        <f t="shared" si="5"/>
-        <v>34.11748037353707</v>
-      </c>
-      <c r="P62" s="2">
-        <f t="shared" si="6"/>
-        <v>1.0338181978310923</v>
-      </c>
-      <c r="Q62" s="2">
-        <f t="shared" si="7"/>
-        <v>39.825000000000003</v>
-      </c>
-      <c r="R62" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="63" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H63" s="2">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="I63" s="2">
-        <f t="shared" si="1"/>
-        <v>28.880000000000003</v>
-      </c>
-      <c r="J63" s="2">
-        <f t="shared" si="10"/>
-        <v>0.42371091115618703</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L63" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M63" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H63</f>
-        <v>30</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" si="4"/>
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="O63" s="2">
-        <f t="shared" si="5"/>
-        <v>34.69574275274956</v>
-      </c>
-      <c r="P63" s="2">
-        <f t="shared" si="6"/>
-        <v>1.1802987539315064</v>
-      </c>
-      <c r="Q63" s="2">
-        <f t="shared" si="7"/>
-        <v>40.5</v>
-      </c>
-      <c r="R63" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="64" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H64" s="2">
-        <f t="shared" si="9"/>
-        <v>30.5</v>
-      </c>
-      <c r="I64" s="2">
-        <f t="shared" si="1"/>
-        <v>29.380000000000003</v>
-      </c>
-      <c r="J64" s="2">
-        <f t="shared" si="10"/>
-        <v>0.45424683159920398</v>
-      </c>
-      <c r="K64" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L64" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M64" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H64</f>
-        <v>30.5</v>
-      </c>
-      <c r="N64" s="2">
-        <f t="shared" si="4"/>
-        <v>0.56979411764705878</v>
-      </c>
-      <c r="O64" s="2">
-        <f t="shared" si="5"/>
-        <v>35.274005131962056</v>
-      </c>
-      <c r="P64" s="2">
-        <f t="shared" si="6"/>
-        <v>1.3722459292189733</v>
-      </c>
-      <c r="Q64" s="2">
-        <f t="shared" si="7"/>
-        <v>41.175000000000004</v>
-      </c>
-      <c r="R64" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="65" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H65" s="2">
-        <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="I65" s="2">
-        <f t="shared" si="1"/>
-        <v>29.879999999999995</v>
-      </c>
-      <c r="J65" s="2">
-        <f t="shared" si="10"/>
-        <v>0.49038872701725067</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L65" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M65" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H65</f>
-        <v>31</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" si="4"/>
-        <v>0.6089374999999998</v>
-      </c>
-      <c r="O65" s="2">
-        <f t="shared" si="5"/>
-        <v>35.852267511174546</v>
-      </c>
-      <c r="P65" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6347174140904874</v>
-      </c>
-      <c r="Q65" s="2">
-        <f t="shared" si="7"/>
-        <v>41.85</v>
-      </c>
-      <c r="R65" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="66" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H66" s="2">
-        <f t="shared" si="9"/>
-        <v>31.5</v>
-      </c>
-      <c r="I66" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J66" s="2">
-        <f t="shared" si="10"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L66" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M66" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H66</f>
-        <v>31.5</v>
-      </c>
-      <c r="N66" s="2">
-        <f t="shared" si="4"/>
-        <v>0.65329999999999999</v>
-      </c>
-      <c r="O66" s="2">
-        <f t="shared" si="5"/>
-        <v>36.430529890387042</v>
-      </c>
-      <c r="P66" s="2">
-        <f t="shared" si="6"/>
-        <v>2.0153279539752602</v>
-      </c>
-      <c r="Q66" s="2">
-        <f t="shared" si="7"/>
-        <v>42.525000000000006</v>
-      </c>
-      <c r="R66" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="67" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H67" s="2">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="I67" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J67" s="2">
-        <f t="shared" ref="J67:J98" si="11">$G$2*I67^6+$G$3*I67^5+$G$4*I67^4+$G$5*I67^3+$G$6*I67^2+$G$7*I67^1+$G$8</f>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L67" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M67" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H67</f>
-        <v>32</v>
-      </c>
-      <c r="N67" s="2">
-        <f t="shared" si="4"/>
-        <v>0.70399999999999985</v>
-      </c>
-      <c r="O67" s="2">
-        <f t="shared" si="5"/>
-        <v>37.008792269599532</v>
-      </c>
-      <c r="P67" s="2">
-        <f t="shared" si="6"/>
-        <v>2.6170030799269455</v>
-      </c>
-      <c r="Q67" s="2">
-        <f t="shared" si="7"/>
-        <v>43.2</v>
-      </c>
-      <c r="R67" s="2" t="str">
-        <f t="shared" si="8"/>
         <v>-</v>
       </c>
     </row>
     <row r="68" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H68" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.5</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" ref="I68:I103" si="12">MIN(H68+0.224*$J$1-2.24,30)</f>
+        <f t="shared" ref="I68:I103" si="15">MIN(H68+0.224*$J$1-2.24,30)</f>
         <v>30</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.49999968427934049</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" ref="K68:K103" si="13">MIN(H68+0.224*$L$1-2.24,30)</f>
+        <f t="shared" ref="K68:K103" si="16">MIN(H68+0.224*$L$1-2.24,30)</f>
         <v>30</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" ref="L68:L103" si="14">$G$2*K68^6+$G$3*K68^5+$G$4*K68^4+$G$5*K68^3+$G$6*K68^2+$G$7*K68^1+$G$8</f>
+        <f t="shared" ref="L68:L103" si="17">$G$2*K68^6+$G$3*K68^5+$G$4*K68^4+$G$5*K68^3+$G$6*K68^2+$G$7*K68^1+$G$8</f>
         <v>0.49999968427934049</v>
       </c>
       <c r="M68" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H68</f>
+        <f t="shared" si="14"/>
         <v>32.5</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" ref="N68:N103" si="15" xml:space="preserve"> IF(M68&lt;39,0.08 + 0.0035 * M68 / (1 -M68 / 39),"-")</f>
+        <f t="shared" ref="N68:N103" si="18" xml:space="preserve"> IF(M68&lt;39,0.08 + 0.0035 * M68 / (1 -M68 / 39),"-")</f>
         <v>0.76250000000000018</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" ref="O68:O103" si="16">IF(P$1&lt;=10,1,1+0.07*SQRT(P$1-10))*H68</f>
+        <f t="shared" ref="O68:O103" si="19">IF(P$1&lt;=10,1,1+0.07*SQRT(P$1-10))*H68</f>
         <v>37.587054648812021</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" ref="P68:P103" si="17" xml:space="preserve"> IF(O68&lt;39,0.08 + 0.0035 * O68 / (1 -O68 / 39),"-")</f>
+        <f t="shared" ref="P68:P103" si="20" xml:space="preserve"> IF(O68&lt;39,0.08 + 0.0035 * O68 / (1 -O68 / 39),"-")</f>
         <v>3.7111616406459698</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" ref="Q68:Q103" si="18">IF(R$1&lt;=10,1,1+0.07*SQRT(R$1-10))*H68</f>
+        <f t="shared" ref="Q68:Q103" si="21">IF(R$1&lt;=10,1,1+0.07*SQRT(R$1-10))*H68</f>
         <v>43.875</v>
       </c>
       <c r="R68" s="2" t="str">
-        <f t="shared" ref="R68:R103" si="19" xml:space="preserve"> IF(Q68&lt;39,0.08 + 0.0035 * Q68 / (1 -Q68 / 39),"-")</f>
+        <f t="shared" ref="R68:R103" si="22" xml:space="preserve"> IF(Q68&lt;39,0.08 + 0.0035 * Q68 / (1 -Q68 / 39),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="69" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H69" s="2">
-        <f t="shared" ref="H69:H103" si="20">H68+0.5</f>
+        <f t="shared" ref="H69:H103" si="23">H68+0.5</f>
         <v>33</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.49999968427934049</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="L69" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M69" s="2">
         <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M69" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H69</f>
         <v>33</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.83074999999999999</v>
       </c>
       <c r="O69" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>38.165317028024518</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6.321370615235673</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>44.550000000000004</v>
       </c>
       <c r="R69" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="70" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H70" s="2">
+        <f t="shared" si="23"/>
+        <v>33.5</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="14"/>
+        <v>33.5</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="18"/>
+        <v>0.91140909090909061</v>
+      </c>
+      <c r="O70" s="2">
+        <f t="shared" si="19"/>
+        <v>38.743579407237007</v>
+      </c>
+      <c r="P70" s="2">
         <f t="shared" si="20"/>
-        <v>33.5</v>
-      </c>
-      <c r="I70" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J70" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L70" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M70" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H70</f>
-        <v>33.5</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" si="15"/>
-        <v>0.91140909090909061</v>
-      </c>
-      <c r="O70" s="2">
-        <f t="shared" si="16"/>
-        <v>38.743579407237007</v>
-      </c>
-      <c r="P70" s="2">
-        <f t="shared" si="17"/>
         <v>20.704313094759588</v>
       </c>
       <c r="Q70" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>45.225000000000001</v>
       </c>
       <c r="R70" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="71" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H71" s="2">
+        <f t="shared" si="23"/>
+        <v>34</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="18"/>
+        <v>1.0082000000000002</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="19"/>
+        <v>39.321841786449504</v>
+      </c>
+      <c r="P71" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>34</v>
-      </c>
-      <c r="I71" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J71" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K71" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L71" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M71" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H71</f>
-        <v>34</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" si="15"/>
-        <v>1.0082000000000002</v>
-      </c>
-      <c r="O71" s="2">
-        <f t="shared" si="16"/>
-        <v>39.321841786449504</v>
-      </c>
-      <c r="P71" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>45.900000000000006</v>
       </c>
       <c r="R71" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="72" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H72" s="2">
+        <f t="shared" si="23"/>
+        <v>34.5</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="14"/>
+        <v>34.5</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="18"/>
+        <v>1.1264999999999998</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" si="19"/>
+        <v>39.900104165661993</v>
+      </c>
+      <c r="P72" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>34.5</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M72" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H72</f>
-        <v>34.5</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" si="15"/>
-        <v>1.1264999999999998</v>
-      </c>
-      <c r="O72" s="2">
-        <f t="shared" si="16"/>
-        <v>39.900104165661993</v>
-      </c>
-      <c r="P72" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>46.575000000000003</v>
       </c>
       <c r="R72" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="73" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H73" s="2">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="18"/>
+        <v>1.2743750000000005</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="19"/>
+        <v>40.47836654487449</v>
+      </c>
+      <c r="P73" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>35</v>
-      </c>
-      <c r="I73" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J73" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K73" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L73" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M73" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H73</f>
-        <v>35</v>
-      </c>
-      <c r="N73" s="2">
-        <f t="shared" si="15"/>
-        <v>1.2743750000000005</v>
-      </c>
-      <c r="O73" s="2">
-        <f t="shared" si="16"/>
-        <v>40.47836654487449</v>
-      </c>
-      <c r="P73" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>47.25</v>
       </c>
       <c r="R73" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="74" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H74" s="2">
+        <f t="shared" si="23"/>
+        <v>35.5</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M74" s="2">
+        <f t="shared" si="14"/>
+        <v>35.5</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4644999999999999</v>
+      </c>
+      <c r="O74" s="2">
+        <f t="shared" si="19"/>
+        <v>41.056628924086979</v>
+      </c>
+      <c r="P74" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>35.5</v>
-      </c>
-      <c r="I74" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K74" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L74" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M74" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H74</f>
-        <v>35.5</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" si="15"/>
-        <v>1.4644999999999999</v>
-      </c>
-      <c r="O74" s="2">
-        <f t="shared" si="16"/>
-        <v>41.056628924086979</v>
-      </c>
-      <c r="P74" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q74" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>47.925000000000004</v>
       </c>
       <c r="R74" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="75" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H75" s="2">
+        <f t="shared" si="23"/>
+        <v>36</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="18"/>
+        <v>1.7180000000000011</v>
+      </c>
+      <c r="O75" s="2">
+        <f t="shared" si="19"/>
+        <v>41.634891303299476</v>
+      </c>
+      <c r="P75" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>36</v>
-      </c>
-      <c r="I75" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L75" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M75" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H75</f>
-        <v>36</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="15"/>
-        <v>1.7180000000000011</v>
-      </c>
-      <c r="O75" s="2">
-        <f t="shared" si="16"/>
-        <v>41.634891303299476</v>
-      </c>
-      <c r="P75" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>48.6</v>
       </c>
       <c r="R75" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="76" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H76" s="2">
+        <f t="shared" si="23"/>
+        <v>36.5</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" si="14"/>
+        <v>36.5</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="18"/>
+        <v>2.0729000000000002</v>
+      </c>
+      <c r="O76" s="2">
+        <f t="shared" si="19"/>
+        <v>42.213153682511965</v>
+      </c>
+      <c r="P76" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>36.5</v>
-      </c>
-      <c r="I76" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J76" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K76" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L76" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M76" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H76</f>
-        <v>36.5</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="15"/>
-        <v>2.0729000000000002</v>
-      </c>
-      <c r="O76" s="2">
-        <f t="shared" si="16"/>
-        <v>42.213153682511965</v>
-      </c>
-      <c r="P76" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q76" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>49.275000000000006</v>
       </c>
       <c r="R76" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="77" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H77" s="2">
+        <f t="shared" si="23"/>
+        <v>37</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="18"/>
+        <v>2.6052499999999981</v>
+      </c>
+      <c r="O77" s="2">
+        <f t="shared" si="19"/>
+        <v>42.791416061724462</v>
+      </c>
+      <c r="P77" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>37</v>
-      </c>
-      <c r="I77" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J77" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K77" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L77" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M77" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H77</f>
-        <v>37</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="15"/>
-        <v>2.6052499999999981</v>
-      </c>
-      <c r="O77" s="2">
-        <f t="shared" si="16"/>
-        <v>42.791416061724462</v>
-      </c>
-      <c r="P77" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>49.95</v>
       </c>
       <c r="R77" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="78" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H78" s="2">
+        <f t="shared" si="23"/>
+        <v>37.5</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M78" s="2">
+        <f t="shared" si="14"/>
+        <v>37.5</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="18"/>
+        <v>3.4925000000000024</v>
+      </c>
+      <c r="O78" s="2">
+        <f t="shared" si="19"/>
+        <v>43.369678440936951</v>
+      </c>
+      <c r="P78" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>37.5</v>
-      </c>
-      <c r="I78" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J78" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L78" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M78" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H78</f>
-        <v>37.5</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="15"/>
-        <v>3.4925000000000024</v>
-      </c>
-      <c r="O78" s="2">
-        <f t="shared" si="16"/>
-        <v>43.369678440936951</v>
-      </c>
-      <c r="P78" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>50.625</v>
       </c>
       <c r="R78" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="79" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H79" s="2">
+        <f t="shared" si="23"/>
+        <v>38</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="18"/>
+        <v>5.2669999999999959</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" si="19"/>
+        <v>43.947940820149441</v>
+      </c>
+      <c r="P79" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>38</v>
-      </c>
-      <c r="I79" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J79" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K79" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L79" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M79" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H79</f>
-        <v>38</v>
-      </c>
-      <c r="N79" s="2">
-        <f t="shared" si="15"/>
-        <v>5.2669999999999959</v>
-      </c>
-      <c r="O79" s="2">
-        <f t="shared" si="16"/>
-        <v>43.947940820149441</v>
-      </c>
-      <c r="P79" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>51.300000000000004</v>
       </c>
       <c r="R79" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="80" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H80" s="2">
+        <f t="shared" si="23"/>
+        <v>38.5</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="14"/>
+        <v>38.5</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" si="18"/>
+        <v>10.590500000000038</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="19"/>
+        <v>44.526203199361937</v>
+      </c>
+      <c r="P80" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>38.5</v>
-      </c>
-      <c r="I80" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J80" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K80" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L80" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M80" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H80</f>
-        <v>38.5</v>
-      </c>
-      <c r="N80" s="2">
-        <f t="shared" si="15"/>
-        <v>10.590500000000038</v>
-      </c>
-      <c r="O80" s="2">
-        <f t="shared" si="16"/>
-        <v>44.526203199361937</v>
-      </c>
-      <c r="P80" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>51.975000000000001</v>
       </c>
       <c r="R80" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="81" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H81" s="2">
+        <f t="shared" si="23"/>
+        <v>39</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="N81" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O81" s="2">
+        <f t="shared" si="19"/>
+        <v>45.104465578574427</v>
+      </c>
+      <c r="P81" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="I81" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J81" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K81" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L81" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M81" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H81</f>
-        <v>39</v>
-      </c>
-      <c r="N81" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O81" s="2">
-        <f t="shared" si="16"/>
-        <v>45.104465578574427</v>
-      </c>
-      <c r="P81" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q81" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>52.650000000000006</v>
       </c>
       <c r="R81" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="82" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H82" s="2">
+        <f t="shared" si="23"/>
+        <v>39.5</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="14"/>
+        <v>39.5</v>
+      </c>
+      <c r="N82" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O82" s="2">
+        <f t="shared" si="19"/>
+        <v>45.682727957786923</v>
+      </c>
+      <c r="P82" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>39.5</v>
-      </c>
-      <c r="I82" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J82" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K82" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L82" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M82" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H82</f>
-        <v>39.5</v>
-      </c>
-      <c r="N82" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O82" s="2">
-        <f t="shared" si="16"/>
-        <v>45.682727957786923</v>
-      </c>
-      <c r="P82" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q82" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>53.325000000000003</v>
       </c>
       <c r="R82" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="83" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H83" s="2">
+        <f t="shared" si="23"/>
+        <v>40</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="N83" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O83" s="2">
+        <f t="shared" si="19"/>
+        <v>46.260990336999413</v>
+      </c>
+      <c r="P83" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>40</v>
-      </c>
-      <c r="I83" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J83" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K83" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L83" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M83" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H83</f>
-        <v>40</v>
-      </c>
-      <c r="N83" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O83" s="2">
-        <f t="shared" si="16"/>
-        <v>46.260990336999413</v>
-      </c>
-      <c r="P83" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q83" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>54</v>
       </c>
       <c r="R83" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="84" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H84" s="2">
+        <f t="shared" si="23"/>
+        <v>40.5</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="14"/>
+        <v>40.5</v>
+      </c>
+      <c r="N84" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O84" s="2">
+        <f t="shared" si="19"/>
+        <v>46.839252716211909</v>
+      </c>
+      <c r="P84" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>40.5</v>
-      </c>
-      <c r="I84" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J84" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K84" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L84" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M84" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H84</f>
-        <v>40.5</v>
-      </c>
-      <c r="N84" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O84" s="2">
-        <f t="shared" si="16"/>
-        <v>46.839252716211909</v>
-      </c>
-      <c r="P84" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q84" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>54.675000000000004</v>
       </c>
       <c r="R84" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="85" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H85" s="2">
+        <f t="shared" si="23"/>
+        <v>41</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="N85" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O85" s="2">
+        <f t="shared" si="19"/>
+        <v>47.417515095424399</v>
+      </c>
+      <c r="P85" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>41</v>
-      </c>
-      <c r="I85" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J85" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K85" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L85" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M85" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H85</f>
-        <v>41</v>
-      </c>
-      <c r="N85" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O85" s="2">
-        <f t="shared" si="16"/>
-        <v>47.417515095424399</v>
-      </c>
-      <c r="P85" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q85" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>55.35</v>
       </c>
       <c r="R85" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="86" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H86" s="2">
+        <f t="shared" si="23"/>
+        <v>41.5</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" si="14"/>
+        <v>41.5</v>
+      </c>
+      <c r="N86" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O86" s="2">
+        <f t="shared" si="19"/>
+        <v>47.995777474636895</v>
+      </c>
+      <c r="P86" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>41.5</v>
-      </c>
-      <c r="I86" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J86" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K86" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L86" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M86" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H86</f>
-        <v>41.5</v>
-      </c>
-      <c r="N86" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O86" s="2">
-        <f t="shared" si="16"/>
-        <v>47.995777474636895</v>
-      </c>
-      <c r="P86" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q86" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>56.025000000000006</v>
       </c>
       <c r="R86" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="87" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H87" s="2">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="N87" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O87" s="2">
+        <f t="shared" si="19"/>
+        <v>48.574039853849385</v>
+      </c>
+      <c r="P87" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>42</v>
-      </c>
-      <c r="I87" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J87" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K87" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L87" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M87" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H87</f>
-        <v>42</v>
-      </c>
-      <c r="N87" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O87" s="2">
-        <f t="shared" si="16"/>
-        <v>48.574039853849385</v>
-      </c>
-      <c r="P87" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q87" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>56.7</v>
       </c>
       <c r="R87" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="88" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H88" s="2">
+        <f t="shared" si="23"/>
+        <v>42.5</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" si="14"/>
+        <v>42.5</v>
+      </c>
+      <c r="N88" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" si="19"/>
+        <v>49.152302233061882</v>
+      </c>
+      <c r="P88" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>42.5</v>
-      </c>
-      <c r="I88" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J88" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K88" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L88" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M88" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H88</f>
-        <v>42.5</v>
-      </c>
-      <c r="N88" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O88" s="2">
-        <f t="shared" si="16"/>
-        <v>49.152302233061882</v>
-      </c>
-      <c r="P88" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q88" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>57.375000000000007</v>
       </c>
       <c r="R88" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="89" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H89" s="2">
+        <f t="shared" si="23"/>
+        <v>43</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M89" s="2">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="N89" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O89" s="2">
+        <f t="shared" si="19"/>
+        <v>49.730564612274371</v>
+      </c>
+      <c r="P89" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>43</v>
-      </c>
-      <c r="I89" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K89" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L89" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M89" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H89</f>
-        <v>43</v>
-      </c>
-      <c r="N89" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O89" s="2">
-        <f t="shared" si="16"/>
-        <v>49.730564612274371</v>
-      </c>
-      <c r="P89" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q89" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>58.050000000000004</v>
       </c>
       <c r="R89" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="90" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H90" s="2">
+        <f t="shared" si="23"/>
+        <v>43.5</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M90" s="2">
+        <f t="shared" si="14"/>
+        <v>43.5</v>
+      </c>
+      <c r="N90" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O90" s="2">
+        <f t="shared" si="19"/>
+        <v>50.30882699148686</v>
+      </c>
+      <c r="P90" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>43.5</v>
-      </c>
-      <c r="I90" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J90" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K90" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L90" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M90" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H90</f>
-        <v>43.5</v>
-      </c>
-      <c r="N90" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O90" s="2">
-        <f t="shared" si="16"/>
-        <v>50.30882699148686</v>
-      </c>
-      <c r="P90" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q90" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>58.725000000000001</v>
       </c>
       <c r="R90" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="91" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H91" s="2">
+        <f t="shared" si="23"/>
+        <v>44</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M91" s="2">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="N91" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O91" s="2">
+        <f t="shared" si="19"/>
+        <v>50.887089370699357</v>
+      </c>
+      <c r="P91" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>44</v>
-      </c>
-      <c r="I91" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J91" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K91" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L91" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M91" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H91</f>
-        <v>44</v>
-      </c>
-      <c r="N91" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O91" s="2">
-        <f t="shared" si="16"/>
-        <v>50.887089370699357</v>
-      </c>
-      <c r="P91" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q91" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>59.400000000000006</v>
       </c>
       <c r="R91" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="92" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H92" s="2">
+        <f t="shared" si="23"/>
+        <v>44.5</v>
+      </c>
+      <c r="I92" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M92" s="2">
+        <f t="shared" si="14"/>
+        <v>44.5</v>
+      </c>
+      <c r="N92" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O92" s="2">
+        <f t="shared" si="19"/>
+        <v>51.465351749911846</v>
+      </c>
+      <c r="P92" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>44.5</v>
-      </c>
-      <c r="I92" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J92" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K92" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L92" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M92" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H92</f>
-        <v>44.5</v>
-      </c>
-      <c r="N92" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O92" s="2">
-        <f t="shared" si="16"/>
-        <v>51.465351749911846</v>
-      </c>
-      <c r="P92" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q92" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>60.075000000000003</v>
       </c>
       <c r="R92" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="93" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H93" s="2">
+        <f t="shared" si="23"/>
+        <v>45</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="N93" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O93" s="2">
+        <f t="shared" si="19"/>
+        <v>52.043614129124343</v>
+      </c>
+      <c r="P93" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>45</v>
-      </c>
-      <c r="I93" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J93" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K93" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L93" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M93" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H93</f>
-        <v>45</v>
-      </c>
-      <c r="N93" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O93" s="2">
-        <f t="shared" si="16"/>
-        <v>52.043614129124343</v>
-      </c>
-      <c r="P93" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q93" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>60.750000000000007</v>
       </c>
       <c r="R93" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="94" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H94" s="2">
+        <f t="shared" si="23"/>
+        <v>45.5</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M94" s="2">
+        <f t="shared" si="14"/>
+        <v>45.5</v>
+      </c>
+      <c r="N94" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O94" s="2">
+        <f t="shared" si="19"/>
+        <v>52.621876508336833</v>
+      </c>
+      <c r="P94" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>45.5</v>
-      </c>
-      <c r="I94" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J94" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K94" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L94" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M94" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H94</f>
-        <v>45.5</v>
-      </c>
-      <c r="N94" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O94" s="2">
-        <f t="shared" si="16"/>
-        <v>52.621876508336833</v>
-      </c>
-      <c r="P94" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q94" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>61.425000000000004</v>
       </c>
       <c r="R94" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="95" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H95" s="2">
+        <f t="shared" si="23"/>
+        <v>46</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="14"/>
+        <v>46</v>
+      </c>
+      <c r="N95" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O95" s="2">
+        <f t="shared" si="19"/>
+        <v>53.200138887549329</v>
+      </c>
+      <c r="P95" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>46</v>
-      </c>
-      <c r="I95" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J95" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K95" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L95" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M95" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H95</f>
-        <v>46</v>
-      </c>
-      <c r="N95" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O95" s="2">
-        <f t="shared" si="16"/>
-        <v>53.200138887549329</v>
-      </c>
-      <c r="P95" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q95" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>62.1</v>
       </c>
       <c r="R95" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="96" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H96" s="2">
+        <f t="shared" si="23"/>
+        <v>46.5</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="14"/>
+        <v>46.5</v>
+      </c>
+      <c r="N96" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O96" s="2">
+        <f t="shared" si="19"/>
+        <v>53.778401266761819</v>
+      </c>
+      <c r="P96" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>46.5</v>
-      </c>
-      <c r="I96" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J96" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K96" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L96" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M96" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H96</f>
-        <v>46.5</v>
-      </c>
-      <c r="N96" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O96" s="2">
-        <f t="shared" si="16"/>
-        <v>53.778401266761819</v>
-      </c>
-      <c r="P96" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q96" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>62.775000000000006</v>
       </c>
       <c r="R96" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="97" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H97" s="2">
+        <f t="shared" si="23"/>
+        <v>47</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" si="14"/>
+        <v>47</v>
+      </c>
+      <c r="N97" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O97" s="2">
+        <f t="shared" si="19"/>
+        <v>54.356663645974315</v>
+      </c>
+      <c r="P97" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>47</v>
-      </c>
-      <c r="I97" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J97" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K97" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L97" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M97" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H97</f>
-        <v>47</v>
-      </c>
-      <c r="N97" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O97" s="2">
-        <f t="shared" si="16"/>
-        <v>54.356663645974315</v>
-      </c>
-      <c r="P97" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q97" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>63.45</v>
       </c>
       <c r="R97" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="98" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H98" s="2">
+        <f t="shared" si="23"/>
+        <v>47.5</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="13"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M98" s="2">
+        <f t="shared" si="14"/>
+        <v>47.5</v>
+      </c>
+      <c r="N98" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O98" s="2">
+        <f t="shared" si="19"/>
+        <v>54.934926025186805</v>
+      </c>
+      <c r="P98" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>47.5</v>
-      </c>
-      <c r="I98" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J98" s="2">
-        <f t="shared" si="11"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K98" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L98" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M98" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H98</f>
-        <v>47.5</v>
-      </c>
-      <c r="N98" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O98" s="2">
-        <f t="shared" si="16"/>
-        <v>54.934926025186805</v>
-      </c>
-      <c r="P98" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q98" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>64.125</v>
       </c>
       <c r="R98" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="99" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H99" s="2">
+        <f t="shared" si="23"/>
+        <v>48</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" ref="J99:J103" si="24">$G$2*I99^6+$G$3*I99^5+$G$4*I99^4+$G$5*I99^3+$G$6*I99^2+$G$7*I99^1+$G$8</f>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" ref="M99:M130" si="25">IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H99</f>
+        <v>48</v>
+      </c>
+      <c r="N99" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O99" s="2">
+        <f t="shared" si="19"/>
+        <v>55.513188404399301</v>
+      </c>
+      <c r="P99" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="I99" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J99" s="2">
-        <f t="shared" ref="J99:J103" si="21">$G$2*I99^6+$G$3*I99^5+$G$4*I99^4+$G$5*I99^3+$G$6*I99^2+$G$7*I99^1+$G$8</f>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K99" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L99" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M99" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H99</f>
-        <v>48</v>
-      </c>
-      <c r="N99" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="O99" s="2">
-        <f t="shared" si="16"/>
-        <v>55.513188404399301</v>
-      </c>
-      <c r="P99" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
       <c r="Q99" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>64.800000000000011</v>
       </c>
       <c r="R99" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="100" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H100" s="2">
+        <f t="shared" si="23"/>
+        <v>48.5</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="24"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" si="25"/>
+        <v>48.5</v>
+      </c>
+      <c r="N100" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O100" s="2">
+        <f t="shared" si="19"/>
+        <v>56.091450783611791</v>
+      </c>
+      <c r="P100" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>48.5</v>
-      </c>
-      <c r="I100" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J100" s="2">
+        <v>-</v>
+      </c>
+      <c r="Q100" s="2">
         <f t="shared" si="21"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K100" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L100" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M100" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H100</f>
-        <v>48.5</v>
-      </c>
-      <c r="N100" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="O100" s="2">
-        <f t="shared" si="16"/>
-        <v>56.091450783611791</v>
-      </c>
-      <c r="P100" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q100" s="2">
-        <f t="shared" si="18"/>
         <v>65.475000000000009</v>
       </c>
       <c r="R100" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="101" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H101" s="2">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="24"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="N101" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O101" s="2">
+        <f t="shared" si="19"/>
+        <v>56.66971316282428</v>
+      </c>
+      <c r="P101" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>49</v>
-      </c>
-      <c r="I101" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J101" s="2">
+        <v>-</v>
+      </c>
+      <c r="Q101" s="2">
         <f t="shared" si="21"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K101" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L101" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M101" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H101</f>
-        <v>49</v>
-      </c>
-      <c r="N101" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="O101" s="2">
-        <f t="shared" si="16"/>
-        <v>56.66971316282428</v>
-      </c>
-      <c r="P101" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q101" s="2">
-        <f t="shared" si="18"/>
         <v>66.150000000000006</v>
       </c>
       <c r="R101" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="102" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H102" s="2">
+        <f t="shared" si="23"/>
+        <v>49.5</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="24"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="25"/>
+        <v>49.5</v>
+      </c>
+      <c r="N102" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O102" s="2">
+        <f t="shared" si="19"/>
+        <v>57.247975542036777</v>
+      </c>
+      <c r="P102" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>49.5</v>
-      </c>
-      <c r="I102" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J102" s="2">
+        <v>-</v>
+      </c>
+      <c r="Q102" s="2">
         <f t="shared" si="21"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K102" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L102" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M102" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H102</f>
-        <v>49.5</v>
-      </c>
-      <c r="N102" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="O102" s="2">
-        <f t="shared" si="16"/>
-        <v>57.247975542036777</v>
-      </c>
-      <c r="P102" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q102" s="2">
-        <f t="shared" si="18"/>
         <v>66.825000000000003</v>
       </c>
       <c r="R102" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
     <row r="103" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H103" s="2">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="24"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="17"/>
+        <v>0.49999968427934049</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="N103" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="O103" s="2">
+        <f t="shared" si="19"/>
+        <v>57.826237921249266</v>
+      </c>
+      <c r="P103" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>50</v>
-      </c>
-      <c r="I103" s="2">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="J103" s="2">
+        <v>-</v>
+      </c>
+      <c r="Q103" s="2">
         <f t="shared" si="21"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="K103" s="2">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="L103" s="2">
-        <f t="shared" si="14"/>
-        <v>0.49999968427934049</v>
-      </c>
-      <c r="M103" s="2">
-        <f>IF(N$1&lt;=10,1,1+0.07*SQRT(N$1-10))*H103</f>
-        <v>50</v>
-      </c>
-      <c r="N103" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="O103" s="2">
-        <f t="shared" si="16"/>
-        <v>57.826237921249266</v>
-      </c>
-      <c r="P103" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q103" s="2">
-        <f t="shared" si="18"/>
         <v>67.5</v>
       </c>
       <c r="R103" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
     </row>
@@ -12567,9 +12567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABB4C30-40CD-4223-B18A-9834A2BC22FF}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12692,7 +12690,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G46" si="1">"[" &amp; E4 &amp; "," &amp; F4 &amp; "],"</f>
+        <f t="shared" ref="G4:G32" si="1">"[" &amp; E4 &amp; "," &amp; F4 &amp; "],"</f>
         <v>[1.63265,0.068],</v>
       </c>
       <c r="H4" t="s">
